--- a/data/trans_bre/P73-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P73-Estudios-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -5,5</t>
+          <t>-13,38; -5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -2,72</t>
+          <t>-10,97; -3,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -2,04</t>
+          <t>-11,39; -1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -7,88</t>
+          <t>-18,25; -7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -3,92</t>
+          <t>-14,89; -4,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -3,17</t>
+          <t>-16,3; -2,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,45</t>
+          <t>-1,63; 5,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,43</t>
+          <t>-0,16; 6,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,54</t>
+          <t>-4,59; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 9,11</t>
+          <t>-2,66; 8,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,62</t>
+          <t>-0,33; 9,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 2,52</t>
+          <t>-7,01; 2,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,75</t>
+          <t>-11,05; 0,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 8,55</t>
+          <t>-4,71; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 2,29</t>
+          <t>-9,27; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 1,21</t>
+          <t>-16,18; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,37</t>
+          <t>-7,13; 13,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 3,73</t>
+          <t>-14,12; 5,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,04; -0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,31</t>
+          <t>-2,54; 2,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,91</t>
+          <t>-5,5; -0,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,55; -0,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,61</t>
+          <t>-3,83; 3,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -1,47</t>
+          <t>-8,52; -1,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P73-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -5,35</t>
+          <t>-13,09; -5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -3,13</t>
+          <t>-11,18; -2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -1,84</t>
+          <t>-11,42; -1,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -7,73</t>
+          <t>-17,68; -7,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -4,6</t>
+          <t>-15,22; -4,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -2,77</t>
+          <t>-16,41; -2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,29</t>
+          <t>-1,26; 5,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,01</t>
+          <t>-0,17; 6,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,5</t>
+          <t>-4,61; 1,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 8,81</t>
+          <t>-2,03; 8,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 9,89</t>
+          <t>-0,3; 10,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,68</t>
+          <t>-7,26; 2,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,84</t>
+          <t>-11,03; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 8,09</t>
+          <t>-4,67; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 3,09</t>
+          <t>-9,41; 2,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 1,38</t>
+          <t>-16,34; 2,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 13,33</t>
+          <t>-7,03; 13,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 5,19</t>
+          <t>-14,15; 4,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,4</t>
+          <t>-5,18; -0,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,33</t>
+          <t>-2,7; 2,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,68</t>
+          <t>-5,84; -0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,59</t>
+          <t>-7,77; -0,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,66</t>
+          <t>-4,07; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,11</t>
+          <t>-9,04; -1,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P73-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,95%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-9,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -5,11</t>
+          <t>-13,15; -5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,18; -2,83</t>
+          <t>-10,85; -2,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -1,63</t>
+          <t>-11,32; -2,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,74; -7,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -7,28</t>
+          <t>-14,63; -3,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -4,02</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; -2,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,33; -3,17</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-2,7%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,15</t>
+          <t>-1,64; 5,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,46</t>
+          <t>0,06; 6,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,58</t>
+          <t>-4,53; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 9,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 8,64</t>
+          <t>0,08; 10,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 2,59</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,04; 2,52</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-5,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 1,4</t>
+          <t>-11,43; 0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,21</t>
+          <t>-4,84; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 2,52</t>
+          <t>-9,84; 2,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 2,23</t>
+          <t>-7,22; 14,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 13,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 4,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,78; 3,73</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-4,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,51</t>
+          <t>-5,14; -0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,18</t>
+          <t>-2,34; 2,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -0,79</t>
+          <t>-5,6; -0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,8</t>
+          <t>-3,58; 3,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; -1,27</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,72; -1,47</t>
         </is>
       </c>
     </row>
@@ -1016,11 +920,11 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P73-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P73-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -5,5</t>
+          <t>-12,62; -5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -2,72</t>
+          <t>-10,64; -3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -2,04</t>
+          <t>-11,33; -1,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -7,88</t>
+          <t>-17,22; -7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -3,92</t>
+          <t>-14,58; -4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -3,17</t>
+          <t>-16,51; -2,34</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,45</t>
+          <t>-1,88; 5,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,43</t>
+          <t>-0,37; 6,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,54</t>
+          <t>-5,03; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 9,11</t>
+          <t>-3,02; 8,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 10,62</t>
+          <t>-0,58; 9,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 2,52</t>
+          <t>-7,86; 2,52</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,75</t>
+          <t>-11,79; 0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 8,55</t>
+          <t>-5,08; 8,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 2,29</t>
+          <t>-9,83; 1,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 1,21</t>
+          <t>-17,32; 0,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,37</t>
+          <t>-7,76; 13,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 3,73</t>
+          <t>-14,8; 2,99</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,12; -0,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,31</t>
+          <t>-2,46; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,91</t>
+          <t>-5,4; -0,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,69; -0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,61</t>
+          <t>-3,71; 3,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -1,47</t>
+          <t>-8,32; -1,01</t>
         </is>
       </c>
     </row>
